--- a/journal.xlsx
+++ b/journal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share_area\Windows\文档\SHM_journals\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <r>
       <t>名称</t>
@@ -39,7 +44,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -63,7 +68,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,7 +101,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +260,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,72 +366,55 @@
     <r>
       <t>Applied</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Mathematical Modelling</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>工程技术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Top </t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学跨学科</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRUCTURAL ENGINEERING AND MECHANICS</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>工程：土木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Mathematical Modelling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>工程技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Top </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学跨学科</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRUCTURAL ENGINEERING AND MECHANICS</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -434,8 +422,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>区
-工程：机械</t>
+      <t>工程：土木</t>
     </r>
     <r>
       <rPr>
@@ -443,7 +430,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -452,6 +439,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>区
+工程：机械</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>区</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -491,17 +496,56 @@
     <t>工程：综合2区 
 数学跨学科应用2区
 力学2区</t>
+  </si>
+  <si>
+    <t>Neural computing and applications</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>工程技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>区</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机:人工智能3区</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spinger</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -523,14 +567,14 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,14 +596,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,6 +606,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -625,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,12 +734,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,12 +751,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,7 +836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,16 +1048,16 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1024,7 +1080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="94.5">
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="40.5">
       <c r="A3" s="18" t="s">
         <v>64</v>
       </c>
@@ -1062,7 +1118,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="40.5">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1156,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="40.5">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="10" t="s">
         <v>75</v>
       </c>
@@ -1138,7 +1194,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1151,119 +1207,117 @@
       <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="A9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="67.5">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:6" ht="67.5">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.5">
-      <c r="A12" s="7" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5">
+      <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>43</v>
@@ -1272,87 +1326,107 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75">
+    <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42.75">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.5">
-      <c r="A16" s="7" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5">
+      <c r="A17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>2.19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="71.25">
-      <c r="A17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42.75">
+        <v>68</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="71.25">
       <c r="A18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2.2229999999999999</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42.75">
+      <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25">
       <c r="F23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="http://www.letpub.com.cn/index.php?page=journalapp&amp;view=detail&amp;journalid=7527"/>
+    <hyperlink ref="A19" r:id="rId1" display="http://www.letpub.com.cn/index.php?page=journalapp&amp;view=detail&amp;journalid=7527"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1365,7 +1439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1378,7 +1452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
